--- a/APM files/130523096/130523096 IMPORT Stop Sell Removal.xlsx
+++ b/APM files/130523096/130523096 IMPORT Stop Sell Removal.xlsx
@@ -1,40 +1,89 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elias\dev\workspace\APM files\130523096\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D25D72A-040A-429E-B3CD-E271C4B368CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="3900" yWindow="4215" windowWidth="22440" windowHeight="13800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="6">
+  <si>
+    <t>Hotel ID</t>
+  </si>
+  <si>
+    <t>SF ID</t>
+  </si>
+  <si>
+    <t>Stop Sell Property</t>
+  </si>
+  <si>
+    <t>Action Type</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Update</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -46,93 +95,58 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,56 +434,1407 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D99"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Hotel ID</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>SF ID</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Stop Sell Property</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Action Type</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Update</t>
-        </is>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>107403831</v>
+      </c>
+      <c r="B2" s="2">
+        <v>130523096</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>107042528</v>
+      </c>
+      <c r="B3" s="2">
+        <v>130523096</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>106994241</v>
+      </c>
+      <c r="B4" s="2">
+        <v>130523096</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>106804168</v>
+      </c>
+      <c r="B5" s="2">
+        <v>130523096</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>107454877</v>
+      </c>
+      <c r="B6" s="2">
+        <v>130523096</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>107403620</v>
+      </c>
+      <c r="B7" s="2">
+        <v>130523096</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>107301571</v>
+      </c>
+      <c r="B8" s="2">
+        <v>130523096</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>106987020</v>
+      </c>
+      <c r="B9" s="2">
+        <v>130523096</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>106945938</v>
+      </c>
+      <c r="B10" s="2">
+        <v>130523096</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>107195470</v>
+      </c>
+      <c r="B11" s="2">
+        <v>130523096</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>106026603</v>
+      </c>
+      <c r="B12" s="2">
+        <v>130523096</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>107046546</v>
+      </c>
+      <c r="B13" s="2">
+        <v>130523096</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>107092328</v>
+      </c>
+      <c r="B14" s="2">
+        <v>130523096</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>106866606</v>
+      </c>
+      <c r="B15" s="2">
+        <v>130523096</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>107484688</v>
+      </c>
+      <c r="B16" s="2">
+        <v>130523096</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>106860523</v>
+      </c>
+      <c r="B17" s="2">
+        <v>130523096</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>107418526</v>
+      </c>
+      <c r="B18" s="2">
+        <v>130523096</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>106637680</v>
+      </c>
+      <c r="B19" s="2">
+        <v>130523096</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>107282790</v>
+      </c>
+      <c r="B20" s="2">
+        <v>130523096</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>106900113</v>
+      </c>
+      <c r="B21" s="2">
+        <v>130523096</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>107212339</v>
+      </c>
+      <c r="B22" s="2">
+        <v>130523096</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>107211668</v>
+      </c>
+      <c r="B23" s="2">
+        <v>130523096</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>107044446</v>
+      </c>
+      <c r="B24" s="2">
+        <v>130523096</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>107043363</v>
+      </c>
+      <c r="B25" s="2">
+        <v>130523096</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>106993116</v>
+      </c>
+      <c r="B26" s="2">
+        <v>130523096</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>106865862</v>
+      </c>
+      <c r="B27" s="2">
+        <v>130523096</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>106863594</v>
+      </c>
+      <c r="B28" s="2">
+        <v>130523096</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>107331009</v>
+      </c>
+      <c r="B29" s="2">
+        <v>130523096</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>107299180</v>
+      </c>
+      <c r="B30" s="2">
+        <v>130523096</v>
+      </c>
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>106945188</v>
+      </c>
+      <c r="B31" s="2">
+        <v>130523096</v>
+      </c>
+      <c r="C31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>107281938</v>
+      </c>
+      <c r="B32" s="2">
+        <v>130523096</v>
+      </c>
+      <c r="C32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>106944770</v>
+      </c>
+      <c r="B33" s="2">
+        <v>130523096</v>
+      </c>
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>107243846</v>
+      </c>
+      <c r="B34" s="2">
+        <v>130523096</v>
+      </c>
+      <c r="C34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>106900875</v>
+      </c>
+      <c r="B35" s="2">
+        <v>130523096</v>
+      </c>
+      <c r="C35" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>106686051</v>
+      </c>
+      <c r="B36" s="2">
+        <v>130523096</v>
+      </c>
+      <c r="C36" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>107146906</v>
+      </c>
+      <c r="B37" s="2">
+        <v>130523096</v>
+      </c>
+      <c r="C37" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>107043383</v>
+      </c>
+      <c r="B38" s="2">
+        <v>130523096</v>
+      </c>
+      <c r="C38" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>106802131</v>
+      </c>
+      <c r="B39" s="2">
+        <v>130523096</v>
+      </c>
+      <c r="C39" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>107454339</v>
+      </c>
+      <c r="B40" s="2">
+        <v>130523096</v>
+      </c>
+      <c r="C40" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>106939579</v>
+      </c>
+      <c r="B41" s="2">
+        <v>130523096</v>
+      </c>
+      <c r="C41" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>107218094</v>
+      </c>
+      <c r="B42" s="2">
+        <v>130523096</v>
+      </c>
+      <c r="C42" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>106892976</v>
+      </c>
+      <c r="B43" s="2">
+        <v>130523096</v>
+      </c>
+      <c r="C43" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>107168887</v>
+      </c>
+      <c r="B44" s="2">
+        <v>130523096</v>
+      </c>
+      <c r="C44" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>106868045</v>
+      </c>
+      <c r="B45" s="2">
+        <v>130523096</v>
+      </c>
+      <c r="C45" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>106663680</v>
+      </c>
+      <c r="B46" s="2">
+        <v>130523096</v>
+      </c>
+      <c r="C46" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>105966606</v>
+      </c>
+      <c r="B47" s="2">
+        <v>130523096</v>
+      </c>
+      <c r="C47" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>107092285</v>
+      </c>
+      <c r="B48" s="2">
+        <v>130523096</v>
+      </c>
+      <c r="C48" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>107421115</v>
+      </c>
+      <c r="B49" s="2">
+        <v>130523096</v>
+      </c>
+      <c r="C49" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <v>107046480</v>
+      </c>
+      <c r="B50" s="2">
+        <v>130523096</v>
+      </c>
+      <c r="C50" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>106860206</v>
+      </c>
+      <c r="B51" s="2">
+        <v>130523096</v>
+      </c>
+      <c r="C51" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>107170534</v>
+      </c>
+      <c r="B52" s="2">
+        <v>130523096</v>
+      </c>
+      <c r="C52" t="s">
+        <v>4</v>
+      </c>
+      <c r="D52" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>106869335</v>
+      </c>
+      <c r="B53" s="2">
+        <v>130523096</v>
+      </c>
+      <c r="C53" t="s">
+        <v>4</v>
+      </c>
+      <c r="D53" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>106987025</v>
+      </c>
+      <c r="B54" s="2">
+        <v>130523096</v>
+      </c>
+      <c r="C54" t="s">
+        <v>4</v>
+      </c>
+      <c r="D54" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>106957820</v>
+      </c>
+      <c r="B55" s="2">
+        <v>130523096</v>
+      </c>
+      <c r="C55" t="s">
+        <v>4</v>
+      </c>
+      <c r="D55" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <v>106957733</v>
+      </c>
+      <c r="B56" s="2">
+        <v>130523096</v>
+      </c>
+      <c r="C56" t="s">
+        <v>4</v>
+      </c>
+      <c r="D56" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <v>107212799</v>
+      </c>
+      <c r="B57" s="2">
+        <v>130523096</v>
+      </c>
+      <c r="C57" t="s">
+        <v>4</v>
+      </c>
+      <c r="D57" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <v>107174324</v>
+      </c>
+      <c r="B58" s="2">
+        <v>130523096</v>
+      </c>
+      <c r="C58" t="s">
+        <v>4</v>
+      </c>
+      <c r="D58" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <v>106866278</v>
+      </c>
+      <c r="B59" s="2">
+        <v>130523096</v>
+      </c>
+      <c r="C59" t="s">
+        <v>4</v>
+      </c>
+      <c r="D59" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <v>107480897</v>
+      </c>
+      <c r="B60" s="2">
+        <v>130523096</v>
+      </c>
+      <c r="C60" t="s">
+        <v>4</v>
+      </c>
+      <c r="D60" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <v>107141719</v>
+      </c>
+      <c r="B61" s="2">
+        <v>130523096</v>
+      </c>
+      <c r="C61" t="s">
+        <v>4</v>
+      </c>
+      <c r="D61" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <v>107092345</v>
+      </c>
+      <c r="B62" s="2">
+        <v>130523096</v>
+      </c>
+      <c r="C62" t="s">
+        <v>4</v>
+      </c>
+      <c r="D62" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <v>106664572</v>
+      </c>
+      <c r="B63" s="2">
+        <v>130523096</v>
+      </c>
+      <c r="C63" t="s">
+        <v>4</v>
+      </c>
+      <c r="D63" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
+        <v>105628280</v>
+      </c>
+      <c r="B64" s="2">
+        <v>130523096</v>
+      </c>
+      <c r="C64" t="s">
+        <v>4</v>
+      </c>
+      <c r="D64" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
+        <v>107046563</v>
+      </c>
+      <c r="B65" s="2">
+        <v>130523096</v>
+      </c>
+      <c r="C65" t="s">
+        <v>4</v>
+      </c>
+      <c r="D65" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
+        <v>107329780</v>
+      </c>
+      <c r="B66" s="2">
+        <v>130523096</v>
+      </c>
+      <c r="C66" t="s">
+        <v>4</v>
+      </c>
+      <c r="D66" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
+        <v>107170494</v>
+      </c>
+      <c r="B67" s="2">
+        <v>130523096</v>
+      </c>
+      <c r="C67" t="s">
+        <v>4</v>
+      </c>
+      <c r="D67" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
+        <v>106867112</v>
+      </c>
+      <c r="B68" s="2">
+        <v>130523096</v>
+      </c>
+      <c r="C68" t="s">
+        <v>4</v>
+      </c>
+      <c r="D68" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
+        <v>106103428</v>
+      </c>
+      <c r="B69" s="2">
+        <v>130523096</v>
+      </c>
+      <c r="C69" t="s">
+        <v>4</v>
+      </c>
+      <c r="D69" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
+        <v>105308431</v>
+      </c>
+      <c r="B70" s="2">
+        <v>130523096</v>
+      </c>
+      <c r="C70" t="s">
+        <v>4</v>
+      </c>
+      <c r="D70" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
+        <v>106860402</v>
+      </c>
+      <c r="B71" s="2">
+        <v>130523096</v>
+      </c>
+      <c r="C71" t="s">
+        <v>4</v>
+      </c>
+      <c r="D71" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
+        <v>106860398</v>
+      </c>
+      <c r="B72" s="2">
+        <v>130523096</v>
+      </c>
+      <c r="C72" t="s">
+        <v>4</v>
+      </c>
+      <c r="D72" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
+        <v>107046255</v>
+      </c>
+      <c r="B73" s="2">
+        <v>130523096</v>
+      </c>
+      <c r="C73" t="s">
+        <v>4</v>
+      </c>
+      <c r="D73" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="3">
+        <v>106993673</v>
+      </c>
+      <c r="B74" s="2">
+        <v>130523096</v>
+      </c>
+      <c r="C74" t="s">
+        <v>4</v>
+      </c>
+      <c r="D74" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
+        <v>106801038</v>
+      </c>
+      <c r="B75" s="2">
+        <v>130523096</v>
+      </c>
+      <c r="C75" t="s">
+        <v>4</v>
+      </c>
+      <c r="D75" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
+        <v>107305482</v>
+      </c>
+      <c r="B76" s="2">
+        <v>130523096</v>
+      </c>
+      <c r="C76" t="s">
+        <v>4</v>
+      </c>
+      <c r="D76" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
+        <v>106989577</v>
+      </c>
+      <c r="B77" s="2">
+        <v>130523096</v>
+      </c>
+      <c r="C77" t="s">
+        <v>4</v>
+      </c>
+      <c r="D77" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
+        <v>107300361</v>
+      </c>
+      <c r="B78" s="2">
+        <v>130523096</v>
+      </c>
+      <c r="C78" t="s">
+        <v>4</v>
+      </c>
+      <c r="D78" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
+        <v>107298434</v>
+      </c>
+      <c r="B79" s="2">
+        <v>130523096</v>
+      </c>
+      <c r="C79" t="s">
+        <v>4</v>
+      </c>
+      <c r="D79" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
+        <v>106947296</v>
+      </c>
+      <c r="B80" s="2">
+        <v>130523096</v>
+      </c>
+      <c r="C80" t="s">
+        <v>4</v>
+      </c>
+      <c r="D80" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="3">
+        <v>107279402</v>
+      </c>
+      <c r="B81" s="2">
+        <v>130523096</v>
+      </c>
+      <c r="C81" t="s">
+        <v>4</v>
+      </c>
+      <c r="D81" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="3">
+        <v>106541621</v>
+      </c>
+      <c r="B82" s="2">
+        <v>130523096</v>
+      </c>
+      <c r="C82" t="s">
+        <v>4</v>
+      </c>
+      <c r="D82" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="3">
+        <v>106026487</v>
+      </c>
+      <c r="B83" s="2">
+        <v>130523096</v>
+      </c>
+      <c r="C83" t="s">
+        <v>4</v>
+      </c>
+      <c r="D83" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="3">
+        <v>107478789</v>
+      </c>
+      <c r="B84" s="2">
+        <v>130523096</v>
+      </c>
+      <c r="C84" t="s">
+        <v>4</v>
+      </c>
+      <c r="D84" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
+        <v>107067707</v>
+      </c>
+      <c r="B85" s="2">
+        <v>130523096</v>
+      </c>
+      <c r="C85" t="s">
+        <v>4</v>
+      </c>
+      <c r="D85" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="3">
+        <v>106831720</v>
+      </c>
+      <c r="B86" s="2">
+        <v>130523096</v>
+      </c>
+      <c r="C86" t="s">
+        <v>4</v>
+      </c>
+      <c r="D86" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="3">
+        <v>107394145</v>
+      </c>
+      <c r="B87" s="2">
+        <v>130523096</v>
+      </c>
+      <c r="C87" t="s">
+        <v>4</v>
+      </c>
+      <c r="D87" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="3">
+        <v>106808891</v>
+      </c>
+      <c r="B88" s="2">
+        <v>130523096</v>
+      </c>
+      <c r="C88" t="s">
+        <v>4</v>
+      </c>
+      <c r="D88" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="3">
+        <v>107392377</v>
+      </c>
+      <c r="B89" s="2">
+        <v>130523096</v>
+      </c>
+      <c r="C89" t="s">
+        <v>4</v>
+      </c>
+      <c r="D89" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="3">
+        <v>106806882</v>
+      </c>
+      <c r="B90" s="2">
+        <v>130523096</v>
+      </c>
+      <c r="C90" t="s">
+        <v>4</v>
+      </c>
+      <c r="D90" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="3">
+        <v>106658262</v>
+      </c>
+      <c r="B91" s="2">
+        <v>130523096</v>
+      </c>
+      <c r="C91" t="s">
+        <v>4</v>
+      </c>
+      <c r="D91" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="3">
+        <v>106994230</v>
+      </c>
+      <c r="B92" s="2">
+        <v>130523096</v>
+      </c>
+      <c r="C92" t="s">
+        <v>4</v>
+      </c>
+      <c r="D92" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="3">
+        <v>106802056</v>
+      </c>
+      <c r="B93" s="2">
+        <v>130523096</v>
+      </c>
+      <c r="C93" t="s">
+        <v>4</v>
+      </c>
+      <c r="D93" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="3">
+        <v>106894059</v>
+      </c>
+      <c r="B94" s="2">
+        <v>130523096</v>
+      </c>
+      <c r="C94" t="s">
+        <v>4</v>
+      </c>
+      <c r="D94" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="3">
+        <v>107151445</v>
+      </c>
+      <c r="B95" s="2">
+        <v>130523096</v>
+      </c>
+      <c r="C95" t="s">
+        <v>4</v>
+      </c>
+      <c r="D95" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="3">
+        <v>107484266</v>
+      </c>
+      <c r="B96" s="2">
+        <v>130523096</v>
+      </c>
+      <c r="C96" t="s">
+        <v>4</v>
+      </c>
+      <c r="D96" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="3">
+        <v>106861969</v>
+      </c>
+      <c r="B97" s="2">
+        <v>130523096</v>
+      </c>
+      <c r="C97" t="s">
+        <v>4</v>
+      </c>
+      <c r="D97" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="3">
+        <v>107095138</v>
+      </c>
+      <c r="B98" s="2">
+        <v>130523096</v>
+      </c>
+      <c r="C98" t="s">
+        <v>4</v>
+      </c>
+      <c r="D98" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="3">
+        <v>105871408</v>
+      </c>
+      <c r="B99" s="2">
+        <v>130523096</v>
+      </c>
+      <c r="C99" t="s">
+        <v>4</v>
+      </c>
+      <c r="D99" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A2:A99">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="false">
+      <formula>NOT(ISERROR(SEARCH("false",A2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>